--- a/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>CZNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -755,8 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,15 +780,15 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
@@ -790,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,14 +821,14 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,66 +944,78 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
-      </c>
-      <c r="E14" s="3">
-        <v>600</v>
-      </c>
-      <c r="F14" s="3">
-        <v>700</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1143,51 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,40 +1206,46 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1174,51 +1254,63 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1879,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1742,8 +1916,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1957,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1788,14 +1974,14 @@
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,57 +2039,69 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -1906,10 +2110,10 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -1917,8 +2121,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2162,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1963,18 +2179,18 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1984,11 +2200,17 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1998,18 +2220,18 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2103,15 +2343,15 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,25 +2498,25 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -2262,31 +2524,37 @@
       <c r="M57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1200</v>
       </c>
       <c r="K58" s="3">
         <v>1200</v>
@@ -2295,45 +2563,57 @@
         <v>1200</v>
       </c>
       <c r="M58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>1100</v>
       </c>
       <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2341,34 +2621,40 @@
         <v>3400</v>
       </c>
       <c r="E60" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2852,14 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2551,34 +2867,40 @@
         <v>3400</v>
       </c>
       <c r="E66" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,25 +2992,31 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F70" s="3">
         <v>200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-78100</v>
+        <v>-78900</v>
       </c>
       <c r="E72" s="3">
-        <v>-78000</v>
+        <v>-79000</v>
       </c>
       <c r="F72" s="3">
         <v>-78100</v>
       </c>
       <c r="G72" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-75600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-75200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-75200</v>
       </c>
       <c r="J72" s="3">
         <v>-75200</v>
       </c>
       <c r="K72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-75700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-74800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3100</v>
+        <v>-3700</v>
       </c>
       <c r="E76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2700</v>
       </c>
       <c r="J76" s="3">
         <v>-2600</v>
       </c>
       <c r="K76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,32 +3670,38 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,17 +3866,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,34 +4073,40 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3622,8 +4114,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>CZNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,109 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -769,8 +780,17 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,18 +806,18 @@
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -810,8 +830,17 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +856,8 @@
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -836,8 +865,8 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
@@ -851,8 +880,17 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +906,11 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +950,17 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,54 +1000,72 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -1008,23 +1076,23 @@
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1032,8 +1100,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1123,111 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>-300</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1243,61 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1200,11 +1310,11 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1212,23 +1322,32 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,78 +1358,96 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>-800</v>
       </c>
       <c r="I23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1487,17 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1537,117 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1687,17 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1737,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1787,17 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1837,117 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1987,122 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2118,11 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,16 +2138,19 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1922,8 +2182,17 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2232,17 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1980,8 +2258,8 @@
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1989,8 +2267,8 @@
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
@@ -2004,8 +2282,17 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,90 +2332,117 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2482,17 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2185,32 +2508,41 @@
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,21 +2558,21 @@
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2250,8 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2632,17 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,16 +2682,25 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -2349,18 +2708,18 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2373,8 +2732,17 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2782,67 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2858,11 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2878,11 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2504,16 +2896,16 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -2525,136 +2917,172 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1200</v>
       </c>
       <c r="N58" s="3">
         <v>1200</v>
       </c>
       <c r="O58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>8500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="E60" s="3">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="F60" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="G60" s="3">
         <v>3400</v>
       </c>
       <c r="H60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,13 +3122,22 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2708,17 +3145,17 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2735,8 +3172,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3222,17 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3272,17 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3322,67 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="E66" s="3">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="F66" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="G66" s="3">
         <v>3400</v>
       </c>
       <c r="H66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3398,11 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3442,17 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3492,17 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,22 +3513,22 @@
         <v>300</v>
       </c>
       <c r="F70" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G70" s="3">
         <v>300</v>
       </c>
       <c r="H70" s="3">
+        <v>300</v>
+      </c>
+      <c r="I70" s="3">
         <v>200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3039,8 +3542,17 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3592,67 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-78900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-79000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-78100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-78000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-78100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-75600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-75200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-75200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-75200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-75700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-74800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3692,17 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3742,17 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3792,67 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2700</v>
       </c>
       <c r="L76" s="3">
         <v>-2600</v>
       </c>
       <c r="M76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3892,122 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +4023,11 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +4067,17 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +4117,17 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +4167,17 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4217,17 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4267,17 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +4317,17 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3688,28 +4338,28 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3717,8 +4367,17 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4393,11 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4437,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4487,17 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4537,17 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3872,20 +4561,20 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3898,8 +4587,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4613,11 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4657,17 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4707,17 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4757,17 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4807,17 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4091,37 +4828,46 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
+        <v>500</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4907,17 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4955,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>CZNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,24 +757,24 @@
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,12 +822,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,11 +875,11 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,16 +1026,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1030,37 +1050,40 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,17 +1108,17 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,49 +1162,52 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1190,44 +1220,47 @@
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,44 +1294,47 @@
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,15 +1347,15 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1331,23 +1368,26 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1358,46 +1398,49 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,49 +1448,52 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,49 +1607,52 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,49 +1660,52 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,44 +1930,47 @@
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,49 +1978,52 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,104 +2084,110 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2152,8 +2239,8 @@
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,37 +2331,40 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,8 +2451,8 @@
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2362,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2379,8 +2478,8 @@
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
@@ -2388,11 +2487,14 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,8 +2504,8 @@
       <c r="E46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2412,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2430,7 +2532,7 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,41 +2596,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2538,43 +2646,46 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
-        <v>200</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>200</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2808,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,13 +2914,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2812,25 +2938,25 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
-        <v>6600</v>
+        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>6600</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2905,22 +3036,22 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,7 +3077,7 @@
         <v>2000</v>
       </c>
       <c r="F58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G58" s="3">
         <v>1900</v>
@@ -2952,22 +3086,22 @@
         <v>1900</v>
       </c>
       <c r="I58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1400</v>
       </c>
       <c r="L58" s="3">
         <v>1400</v>
       </c>
       <c r="M58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1200</v>
       </c>
       <c r="O58" s="3">
         <v>1200</v>
@@ -2979,42 +3113,45 @@
         <v>1200</v>
       </c>
       <c r="R58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
@@ -3023,66 +3160,72 @@
         <v>1100</v>
       </c>
       <c r="P59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3400</v>
       </c>
       <c r="J60" s="3">
         <v>3400</v>
       </c>
       <c r="K60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L60" s="3">
         <v>10400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2700</v>
       </c>
       <c r="N60" s="3">
         <v>2700</v>
       </c>
       <c r="O60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,22 +3274,25 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -3157,8 +3303,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3400</v>
       </c>
       <c r="J66" s="3">
         <v>3400</v>
       </c>
       <c r="K66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2700</v>
       </c>
       <c r="N66" s="3">
         <v>2700</v>
       </c>
       <c r="O66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,17 +3690,17 @@
         <v>300</v>
       </c>
       <c r="I70" s="3">
+        <v>300</v>
+      </c>
+      <c r="J70" s="3">
         <v>200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,40 +3772,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-80000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-75200</v>
       </c>
       <c r="N72" s="3">
         <v>-75200</v>
@@ -3643,16 +3817,19 @@
         <v>-75200</v>
       </c>
       <c r="P72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-75700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-74800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3200</v>
       </c>
       <c r="J76" s="3">
         <v>-3200</v>
       </c>
       <c r="K76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="L76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2600</v>
       </c>
       <c r="M76" s="3">
         <v>-2600</v>
       </c>
       <c r="N76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,49 +4160,52 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4347,22 +4564,22 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,13 +4773,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4570,14 +4800,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4837,16 +5083,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -4855,7 +5101,7 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>CZNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,30 +771,30 @@
       <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>5</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -796,8 +807,17 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,18 +845,18 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
@@ -849,8 +869,17 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +907,8 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -887,8 +916,8 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
@@ -902,8 +931,17 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +961,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1017,17 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1079,79 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>-900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,23 +1179,23 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1135,8 +1203,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1230,11 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,52 +1242,61 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>-300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,44 +1312,53 @@
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1378,11 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,44 +1398,53 @@
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1350,44 +1460,53 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,10 +1517,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1410,90 +1529,108 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>-2400</v>
+        <v>-800</v>
       </c>
       <c r="M23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1682,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1744,141 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1930,17 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1992,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +2054,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2116,17 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1933,97 +2142,115 @@
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2302,146 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2461,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,19 +2485,22 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2281,8 +2541,17 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2603,17 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2360,20 +2638,20 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
@@ -2387,8 +2665,17 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,19 +2727,28 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2464,48 +2760,57 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2517,37 +2822,46 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2913,17 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2625,35 +2948,44 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2678,24 +3010,24 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2705,8 +3037,17 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +3099,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3161,17 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2837,21 +3196,21 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2864,8 +3223,17 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3285,17 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2941,37 +3318,46 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3377,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3401,11 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3039,16 +3431,16 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -3060,172 +3452,208 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>1300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1200</v>
       </c>
       <c r="R58" s="3">
         <v>1200</v>
       </c>
       <c r="S58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>8500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3400</v>
       </c>
       <c r="K60" s="3">
         <v>3400</v>
       </c>
       <c r="L60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O60" s="3">
         <v>10400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3705,17 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,32 +3725,32 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3330,8 +3767,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3829,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3891,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3953,79 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3400</v>
       </c>
       <c r="K66" s="3">
         <v>3400</v>
       </c>
       <c r="L66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +4045,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +4101,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +4163,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3693,22 +4196,22 @@
         <v>300</v>
       </c>
       <c r="J70" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K70" s="3">
         <v>300</v>
       </c>
       <c r="L70" s="3">
+        <v>300</v>
+      </c>
+      <c r="M70" s="3">
         <v>200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3722,8 +4225,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4287,79 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-80400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-80000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-79700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-79600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-78900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-79000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-78100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-78000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-78100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-75600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-75200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-75200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-75700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-74800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4411,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4473,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4535,79 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2700</v>
       </c>
       <c r="P76" s="3">
         <v>-2600</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="T76" s="3">
         <v>-3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4659,146 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4818,11 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4874,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4936,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4998,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +5060,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +5122,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,13 +5184,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4567,28 +5217,28 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4596,8 +5246,17 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5276,11 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +5332,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5394,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,13 +5456,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4803,20 +5492,20 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4829,8 +5518,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5548,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5604,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5666,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5728,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,13 +5790,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5086,37 +5823,46 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
+        <v>500</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,13 +5914,22 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5219,6 +5974,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>CZNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,24 +784,24 @@
       <c r="J8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>5</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,12 +861,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,11 +926,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,28 +1105,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1121,37 +1141,40 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1188,17 +1211,17 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1242,61 +1269,64 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1321,44 +1351,47 @@
       <c r="J18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1407,44 +1441,47 @@
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1469,15 +1506,15 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1490,37 +1527,40 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1529,108 +1569,114 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2151,106 +2221,112 @@
       <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,31 +2574,32 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2647,14 +2740,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2769,16 +2868,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2786,8 +2885,8 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
+      <c r="S45" s="3">
+        <v>100</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
@@ -2795,34 +2894,37 @@
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2831,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -2849,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2957,18 +3065,18 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2981,11 +3089,14 @@
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3019,17 +3130,17 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
-        <v>200</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
+      <c r="Q49" s="3">
+        <v>200</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3205,15 +3325,15 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3417,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3327,25 +3453,25 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>6600</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>6600</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3440,22 +3571,22 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3466,22 +3597,25 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
       </c>
       <c r="G58" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="H58" s="3">
         <v>2000</v>
@@ -3490,7 +3624,7 @@
         <v>2000</v>
       </c>
       <c r="J58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
@@ -3499,22 +3633,22 @@
         <v>1900</v>
       </c>
       <c r="M58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1400</v>
       </c>
       <c r="P58" s="3">
         <v>1400</v>
       </c>
       <c r="Q58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R58" s="3">
         <v>1300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1200</v>
       </c>
       <c r="S58" s="3">
         <v>1200</v>
@@ -3526,54 +3660,57 @@
         <v>1200</v>
       </c>
       <c r="V58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1100</v>
@@ -3582,78 +3719,84 @@
         <v>1100</v>
       </c>
       <c r="T59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>5600</v>
       </c>
       <c r="F60" s="3">
         <v>5600</v>
       </c>
       <c r="G60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3400</v>
       </c>
       <c r="N60" s="3">
         <v>3400</v>
       </c>
       <c r="O60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P60" s="3">
         <v>10400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2700</v>
       </c>
       <c r="R60" s="3">
         <v>2700</v>
       </c>
       <c r="S60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3734,14 +3880,14 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
@@ -3752,8 +3898,8 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5600</v>
       </c>
       <c r="F66" s="3">
         <v>5600</v>
       </c>
       <c r="G66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3400</v>
       </c>
       <c r="N66" s="3">
         <v>3400</v>
       </c>
       <c r="O66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P66" s="3">
         <v>10400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2700</v>
       </c>
       <c r="R66" s="3">
         <v>2700</v>
       </c>
       <c r="S66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4205,17 +4373,17 @@
         <v>300</v>
       </c>
       <c r="M70" s="3">
+        <v>300</v>
+      </c>
+      <c r="N70" s="3">
         <v>200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,52 +4467,55 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-82200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-83000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-80000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-75600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-75200</v>
       </c>
       <c r="R72" s="3">
         <v>-75200</v>
@@ -4350,16 +4524,19 @@
         <v>-75200</v>
       </c>
       <c r="T72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-75700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-74800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3200</v>
       </c>
       <c r="N76" s="3">
         <v>-3200</v>
       </c>
       <c r="O76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q76" s="3">
         <v>-2600</v>
       </c>
       <c r="R76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,13 +5407,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5226,22 +5443,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5501,14 +5731,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,13 +6042,16 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5832,16 +6078,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5850,7 +6096,7 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,13 +6172,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>CZNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,149 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>5</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>5</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -823,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,12 +870,12 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,11 +938,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1144,60 +1163,63 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1214,17 +1236,17 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,129 +1295,135 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1500,24 +1536,24 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1530,40 +1566,43 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1572,111 +1611,117 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,16 +2660,17 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
@@ -2601,8 +2687,8 @@
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2743,14 +2835,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2871,16 +2969,16 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2888,8 +2986,8 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
+      <c r="T45" s="3">
+        <v>100</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
@@ -2897,19 +2995,22 @@
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
+      <c r="E46" s="3">
+        <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
@@ -2926,8 +3027,8 @@
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2936,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -2954,7 +3055,7 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3068,18 +3175,18 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3092,11 +3199,14 @@
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3133,17 +3243,17 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
-        <v>200</v>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
+      <c r="R49" s="3">
+        <v>200</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3328,15 +3447,15 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3456,25 +3581,25 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>6600</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>6600</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3574,22 +3704,22 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -3600,25 +3730,28 @@
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1600</v>
       </c>
       <c r="G58" s="3">
         <v>1600</v>
       </c>
       <c r="H58" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="I58" s="3">
         <v>2000</v>
@@ -3627,7 +3760,7 @@
         <v>2000</v>
       </c>
       <c r="K58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L58" s="3">
         <v>1900</v>
@@ -3636,22 +3769,22 @@
         <v>1900</v>
       </c>
       <c r="N58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1400</v>
       </c>
       <c r="Q58" s="3">
         <v>1400</v>
       </c>
       <c r="R58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S58" s="3">
         <v>1300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1200</v>
       </c>
       <c r="T58" s="3">
         <v>1200</v>
@@ -3663,57 +3796,60 @@
         <v>1200</v>
       </c>
       <c r="W58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1100</v>
       </c>
       <c r="S59" s="3">
         <v>1100</v>
@@ -3722,16 +3858,19 @@
         <v>1100</v>
       </c>
       <c r="U59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3739,64 +3878,67 @@
         <v>3000</v>
       </c>
       <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5600</v>
       </c>
       <c r="G60" s="3">
         <v>5600</v>
       </c>
       <c r="H60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3400</v>
       </c>
       <c r="O60" s="3">
         <v>3400</v>
       </c>
       <c r="P60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2700</v>
       </c>
       <c r="S60" s="3">
         <v>2700</v>
       </c>
       <c r="T60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3883,14 +4028,14 @@
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3901,8 +4046,8 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,64 +4286,67 @@
         <v>3000</v>
       </c>
       <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5600</v>
       </c>
       <c r="G66" s="3">
         <v>5600</v>
       </c>
       <c r="H66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3400</v>
       </c>
       <c r="O66" s="3">
         <v>3400</v>
       </c>
       <c r="P66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>10400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2700</v>
       </c>
       <c r="S66" s="3">
         <v>2700</v>
       </c>
       <c r="T66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4376,17 +4543,17 @@
         <v>300</v>
       </c>
       <c r="N70" s="3">
+        <v>300</v>
+      </c>
+      <c r="O70" s="3">
         <v>200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,55 +4640,58 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-82700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-81800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-80400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-80000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-75600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-75200</v>
       </c>
       <c r="S72" s="3">
         <v>-75200</v>
@@ -4527,16 +4700,19 @@
         <v>-75200</v>
       </c>
       <c r="U72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-75700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-74800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4739,64 +4924,67 @@
         <v>-3200</v>
       </c>
       <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3200</v>
       </c>
       <c r="O76" s="3">
         <v>-3200</v>
       </c>
       <c r="P76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-2600</v>
       </c>
       <c r="R76" s="3">
         <v>-2600</v>
       </c>
       <c r="S76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5446,22 +5662,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5734,14 +5963,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6081,16 +6326,16 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6099,7 +6344,7 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6110,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CZNI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>CZNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,162 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -829,16 +837,22 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
@@ -873,15 +887,15 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
@@ -897,16 +911,22 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
@@ -941,14 +961,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,25 +1179,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1166,37 +1206,43 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>700</v>
       </c>
       <c r="R14" s="3">
         <v>600</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,11 +1267,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1239,20 +1285,20 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,34 +1338,36 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>-800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1325,105 +1379,117 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>600</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1514,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,30 +1610,30 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1569,73 +1643,79 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1644,84 +1724,96 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,22 +2833,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
@@ -2690,11 +2864,11 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2838,8 +3024,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2847,8 +3033,8 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2972,51 +3170,57 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
@@ -3030,26 +3234,26 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -3058,10 +3262,10 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3178,21 +3394,21 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>6200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3202,11 +3418,17 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3246,21 +3468,21 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3450,18 +3690,18 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,13 +3791,19 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3584,37 +3836,43 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3925,15 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3707,25 +3969,25 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -3733,64 +3995,70 @@
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2000</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
       </c>
       <c r="L58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N58" s="3">
         <v>1900</v>
       </c>
       <c r="O58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1200</v>
       </c>
       <c r="V58" s="3">
         <v>1200</v>
@@ -3799,151 +4067,169 @@
         <v>1200</v>
       </c>
       <c r="X58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>8500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1100</v>
       </c>
       <c r="U59" s="3">
         <v>1100</v>
       </c>
       <c r="V59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
         <v>3000</v>
       </c>
       <c r="F60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3600</v>
       </c>
       <c r="O60" s="3">
         <v>3400</v>
       </c>
       <c r="P60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S60" s="3">
         <v>10400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4031,17 +4323,17 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -4049,11 +4341,11 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="E66" s="3">
         <v>3000</v>
       </c>
       <c r="F66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3600</v>
       </c>
       <c r="O66" s="3">
         <v>3400</v>
       </c>
       <c r="P66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S66" s="3">
         <v>10400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4546,7 +4882,7 @@
         <v>300</v>
       </c>
       <c r="O70" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P70" s="3">
         <v>300</v>
@@ -4555,10 +4891,10 @@
         <v>200</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-83300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-82700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-82200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-83000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-81800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-80400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-80000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-79700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-79600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-78900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-79000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-78100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-78000</v>
       </c>
       <c r="Q72" s="3">
         <v>-78100</v>
       </c>
       <c r="R72" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-75600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-75200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-75200</v>
       </c>
       <c r="U72" s="3">
         <v>-75200</v>
       </c>
       <c r="V72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="X72" s="3">
         <v>-75700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-74800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-74500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-2700</v>
       </c>
       <c r="U76" s="3">
         <v>-2600</v>
       </c>
       <c r="V76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="X76" s="3">
         <v>-3400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,13 +6054,19 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5665,26 +6099,26 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5947,8 +6407,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5966,17 +6426,17 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,13 +6776,19 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6329,28 +6821,28 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,13 +6924,19 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
